--- a/translation/xlsx/_tsum_op.xlsx
+++ b/translation/xlsx/_tsum_op.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="359">
   <si>
     <t>actor</t>
   </si>
@@ -837,10 +837,13 @@
     <t>I've never seen her smile so... self-derisively like this.</t>
   </si>
   <si>
+    <t xml:space="preserve">레나가... 이렇게 자조적인 웃음을 지을 줄은 몰랐다. </t>
+  </si>
+  <si>
+    <t>레나가 이렇게 자학적으로 웃을 줄 몰랐어.</t>
+  </si>
+  <si>
     <t xml:space="preserve">레나가... 이렇게 자학적인 웃음을 지을 줄은 몰랐다. </t>
-  </si>
-  <si>
-    <t>레나가 이렇게 자학적으로 웃을 줄 몰랐어.</t>
   </si>
   <si>
     <t xml:space="preserve">　その笑顔は信じられないくらいに痛々しい。</t>
@@ -3862,7 +3865,7 @@
       <c r="B68" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="5" t="s">
         <v>272</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -3872,7 +3875,7 @@
         <v>274</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -3898,22 +3901,22 @@
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F69" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="F69" s="6" t="s">
-        <v>277</v>
-      </c>
       <c r="G69" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -3938,22 +3941,22 @@
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="F70" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="G70" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -3978,16 +3981,16 @@
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -4014,16 +4017,16 @@
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -4052,16 +4055,16 @@
         <v>174</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -4088,16 +4091,16 @@
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -4124,16 +4127,16 @@
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -4162,16 +4165,16 @@
         <v>174</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -4198,16 +4201,16 @@
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -4234,16 +4237,16 @@
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -4270,16 +4273,16 @@
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -4306,16 +4309,16 @@
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -4342,16 +4345,16 @@
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -4378,16 +4381,16 @@
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -4416,16 +4419,16 @@
         <v>174</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -4452,16 +4455,16 @@
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -4488,16 +4491,16 @@
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -4524,16 +4527,16 @@
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -4560,16 +4563,16 @@
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -4596,16 +4599,16 @@
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -4634,7 +4637,7 @@
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -4664,7 +4667,7 @@
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -4694,7 +4697,7 @@
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -4724,7 +4727,7 @@
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -4754,7 +4757,7 @@
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -4784,7 +4787,7 @@
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -4814,7 +4817,7 @@
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -4844,7 +4847,7 @@
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -4874,7 +4877,7 @@
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -4904,7 +4907,7 @@
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -4934,7 +4937,7 @@
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -4964,7 +4967,7 @@
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -4994,7 +4997,7 @@
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -5024,7 +5027,7 @@
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -5054,7 +5057,7 @@
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -5084,7 +5087,7 @@
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -5114,7 +5117,7 @@
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>

--- a/translation/xlsx/_tsum_op.xlsx
+++ b/translation/xlsx/_tsum_op.xlsx
@@ -342,7 +342,7 @@
     <t>...A refreshingly cool breeze tickled our sweaty bodies.</t>
   </si>
   <si>
-    <t>……한낮의 더위로 덮혀진 몸을 간지럽히는 서늘한 바람이 무척 기분 좋았다.</t>
+    <t>……한낮의 더위로 덥혀진 몸을 간지럽히는 서늘한 바람이 무척 기분 좋았다.</t>
   </si>
   <si>
     <t>......지나가는 시원한 바람이, 한낮의 더위로 흘린 얇은 땀을 간지럽히는 것이 기분 좋았다.</t>
